--- a/medicine/Enfance/In_fœtu_(film)/In_fœtu_(film).xlsx
+++ b/medicine/Enfance/In_fœtu_(film)/In_fœtu_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>In_f%C5%93tu_(film)</t>
+          <t>In_fœtu_(film)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 In fœtu est un court métrage dramatique québécois écrit et réalisé par Jacob Khayat. Premier film de fiction du réalisateur, celui-ci aborde les thèmes de l'enfance et de l'identité à travers les yeux de deux jeunes jumeaux, Laurier et Jasmin.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>In_f%C5%93tu_(film)</t>
+          <t>In_fœtu_(film)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'intrigue repose sur la relation entre deux jumeaux, Laurier et Jasmin, qui, à l'heure du bain, se font garder par leur grand-mère. 
 Lorsque celle-ci descend à l'étage pour aller chercher une bouteille de dissolvant à vernis à ongle, les deux enfants jouent à tour de rôle à retenir leur souffle le plus longtemps sous l'eau.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>In_f%C5%93tu_(film)</t>
+          <t>In_fœtu_(film)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Titre original : In fœtu
 Réalisation : Jacob Khayat
@@ -576,7 +592,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>In_f%C5%93tu_(film)</t>
+          <t>In_fœtu_(film)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -594,7 +610,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Zachary Dusseault : Laurier
 Mikaël Dusseault : Jasmin
@@ -609,7 +627,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>In_f%C5%93tu_(film)</t>
+          <t>In_fœtu_(film)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -627,7 +645,9 @@
           <t>Parcours et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Festival Émergence de Montréal - 2022 (Prix de coup de coeur du public)
 Festival SPASM - 2022
